--- a/src/xls/TelefoniaMobileRefactored.xlsx
+++ b/src/xls/TelefoniaMobileRefactored.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puhiz\source\repos\data-visualization-personal\src\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610259B9-BD1B-4E84-A210-5B290447AD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450B88F-BBE5-407F-93F7-F7760EC8F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="13" xr2:uid="{5D7533D3-8976-4771-AE0C-5B50591415CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{5D7533D3-8976-4771-AE0C-5B50591415CD}"/>
   </bookViews>
   <sheets>
     <sheet name="MBB_2G" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="65">
   <si>
     <t>Vala</t>
   </si>
@@ -63,9 +63,6 @@
     <t>MTS</t>
   </si>
   <si>
-    <t>Emri i TSP</t>
-  </si>
-  <si>
     <t>TM1 2018</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>MTS DOO</t>
   </si>
   <si>
-    <t>Trafiku MVNO</t>
-  </si>
-  <si>
     <t>drejt rrjetit tjetër mobil</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t xml:space="preserve">drejt rrjetit ndërkombëtar  </t>
   </si>
   <si>
-    <t>Trafiku i terminuar</t>
-  </si>
-  <si>
     <t>prej rrjetit tjetër mobil</t>
   </si>
   <si>
@@ -250,6 +241,9 @@
   </si>
   <si>
     <t xml:space="preserve">prej rrjetit ndërkombëtar  </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -303,10 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -630,7 +623,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,120 +632,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>566785</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>561768</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>506559</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>466736</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>13774</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>214931</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>218390</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>173432</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>72441</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>99056</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>66152</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>72576</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>84459</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>83796</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>83940</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>59709</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>54184</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>60492</v>
       </c>
     </row>
@@ -760,58 +750,58 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>434214</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>451143</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>566478</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>486924</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>483280</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>166021</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>179356</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>149421</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>9605</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>10786</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>6686</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>6559</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>6182</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>6149</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>5980</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>6295</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>8227</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>8925</v>
       </c>
     </row>
@@ -819,58 +809,58 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1112</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1112</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>903</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>800</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>850</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>390</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>390</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
     </row>
@@ -878,58 +868,58 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>4398</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>5712</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>7256</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>7120</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>7523</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>7212</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>7053</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>6817</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>6679</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>6198</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>5853</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>5626</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>5396</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>5242</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>5068</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>5383</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>5229</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>5157</v>
       </c>
     </row>
@@ -943,150 +933,148 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>11602.74</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>14444.05</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>18742.689999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>14350.57</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>12782.43</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>13398</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>17253.47</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>12586.84</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>10536.84</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>12608.56</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>12608.55</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>10186.57</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>9300.17</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>8978.73</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>9293.1200000000008</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>10587.56</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>9148.7900000000009</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>9634.51</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>11844.13</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>11166.15</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>9237.5300000000007</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>11001.59</v>
       </c>
     </row>
@@ -1094,70 +1082,70 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>8884</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>10721</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>12706</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>9374</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>9230</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>10112</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>12954</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>10262</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>8457</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>7710</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>10330</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>8798</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>7967</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>7140</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>9167.7999999999993</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>9434</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>9181</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>10116</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>15336</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>12124</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>10999</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>12736</v>
       </c>
     </row>
@@ -1165,141 +1153,141 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>989</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1088</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1463</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1435</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>1137.25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>1717</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>2061</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>1839</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>1711</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>1565</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>1565</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>293</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>688.09</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>408.59</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>411.41</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>414</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>469</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>337</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>310</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>757</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>757</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>813.57</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>782.04</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>771.56</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>854.07</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>835.5</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>831</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>831.47</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>873.04</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>872.77</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>863.1</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5">
         <v>823.95</v>
       </c>
     </row>
@@ -1312,9 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8337F59-C2B4-491E-A5BC-94B0B440E6E3}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1322,286 +1308,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>113017</v>
+      </c>
+      <c r="C2">
+        <v>122443</v>
+      </c>
+      <c r="D2">
+        <v>114407</v>
+      </c>
+      <c r="E2">
+        <v>120520</v>
+      </c>
+      <c r="F2">
+        <v>99965</v>
+      </c>
+      <c r="G2">
+        <v>91776</v>
+      </c>
+      <c r="H2">
+        <v>115822</v>
+      </c>
+      <c r="I2">
+        <v>104813</v>
+      </c>
+      <c r="J2">
+        <v>87756</v>
+      </c>
+      <c r="K2">
+        <v>102084</v>
+      </c>
+      <c r="L2">
+        <v>114275</v>
+      </c>
+      <c r="M2">
+        <v>132221</v>
+      </c>
+      <c r="N2">
+        <v>142394</v>
+      </c>
+      <c r="O2">
+        <v>183572</v>
+      </c>
+      <c r="P2">
+        <v>251412</v>
+      </c>
+      <c r="Q2">
+        <v>200884</v>
+      </c>
+      <c r="R2">
+        <v>158707</v>
+      </c>
+      <c r="S2">
+        <v>200348</v>
+      </c>
+      <c r="T2">
+        <v>228983</v>
+      </c>
+      <c r="U2">
+        <v>205573</v>
+      </c>
+      <c r="V2">
+        <v>176904</v>
+      </c>
+      <c r="W2">
+        <v>177727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>92648</v>
+      </c>
+      <c r="C3">
+        <v>101177</v>
+      </c>
+      <c r="D3">
+        <v>105096</v>
+      </c>
+      <c r="E3">
+        <v>95377</v>
+      </c>
+      <c r="F3">
+        <v>85402</v>
+      </c>
+      <c r="G3">
+        <v>97707</v>
+      </c>
+      <c r="H3">
+        <v>109643</v>
+      </c>
+      <c r="I3">
+        <v>109702</v>
+      </c>
+      <c r="J3">
+        <v>100179</v>
+      </c>
+      <c r="K3">
+        <v>111658</v>
+      </c>
+      <c r="L3">
+        <v>120446</v>
+      </c>
+      <c r="M3">
+        <v>120413</v>
+      </c>
+      <c r="N3">
+        <v>113123</v>
+      </c>
+      <c r="O3">
+        <v>145334</v>
+      </c>
+      <c r="P3">
+        <v>136740</v>
+      </c>
+      <c r="Q3">
+        <v>143948</v>
+      </c>
+      <c r="R3">
+        <v>136839</v>
+      </c>
+      <c r="S3">
+        <v>148308</v>
+      </c>
+      <c r="T3">
+        <v>165761</v>
+      </c>
+      <c r="U3">
+        <v>155723</v>
+      </c>
+      <c r="V3">
+        <v>135588</v>
+      </c>
+      <c r="W3">
+        <v>143458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>113017</v>
-      </c>
-      <c r="C2" s="2">
-        <v>122443</v>
-      </c>
-      <c r="D2" s="2">
-        <v>114407</v>
-      </c>
-      <c r="E2" s="2">
-        <v>120520</v>
-      </c>
-      <c r="F2" s="2">
-        <v>99965</v>
-      </c>
-      <c r="G2" s="2">
-        <v>91776</v>
-      </c>
-      <c r="H2" s="2">
-        <v>115822</v>
-      </c>
-      <c r="I2" s="2">
-        <v>104813</v>
-      </c>
-      <c r="J2" s="2">
-        <v>87756</v>
-      </c>
-      <c r="K2" s="2">
-        <v>102084</v>
-      </c>
-      <c r="L2" s="2">
-        <v>114275</v>
-      </c>
-      <c r="M2" s="2">
-        <v>132221</v>
-      </c>
-      <c r="N2" s="2">
-        <v>142394</v>
-      </c>
-      <c r="O2" s="2">
-        <v>183572</v>
-      </c>
-      <c r="P2" s="2">
-        <v>251412</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>200884</v>
-      </c>
-      <c r="R2" s="2">
-        <v>158707</v>
-      </c>
-      <c r="S2" s="2">
-        <v>200348</v>
-      </c>
-      <c r="T2" s="2">
-        <v>228983</v>
-      </c>
-      <c r="U2" s="2">
-        <v>205573</v>
-      </c>
-      <c r="V2" s="2">
-        <v>176904</v>
-      </c>
-      <c r="W2" s="2">
-        <v>177727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>92648</v>
-      </c>
-      <c r="C3" s="2">
-        <v>101177</v>
-      </c>
-      <c r="D3" s="2">
-        <v>105096</v>
-      </c>
-      <c r="E3" s="2">
-        <v>95377</v>
-      </c>
-      <c r="F3" s="2">
-        <v>85402</v>
-      </c>
-      <c r="G3" s="2">
-        <v>97707</v>
-      </c>
-      <c r="H3" s="2">
-        <v>109643</v>
-      </c>
-      <c r="I3" s="2">
-        <v>109702</v>
-      </c>
-      <c r="J3" s="2">
-        <v>100179</v>
-      </c>
-      <c r="K3" s="2">
-        <v>111658</v>
-      </c>
-      <c r="L3" s="2">
-        <v>120446</v>
-      </c>
-      <c r="M3" s="2">
-        <v>120413</v>
-      </c>
-      <c r="N3" s="2">
-        <v>113123</v>
-      </c>
-      <c r="O3" s="2">
-        <v>145334</v>
-      </c>
-      <c r="P3" s="2">
-        <v>136740</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>143948</v>
-      </c>
-      <c r="R3" s="2">
-        <v>136839</v>
-      </c>
-      <c r="S3" s="2">
-        <v>148308</v>
-      </c>
-      <c r="T3" s="2">
-        <v>165761</v>
-      </c>
-      <c r="U3" s="2">
-        <v>155723</v>
-      </c>
-      <c r="V3" s="2">
-        <v>135588</v>
-      </c>
-      <c r="W3" s="2">
-        <v>143458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>16939</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>26661</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>27954</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>26381</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>27794</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>27601</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>29306</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>27937</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>29999</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>29108</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>31312</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>30693</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>34545</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>34812</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>218183</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>33711</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>34058</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>31896</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4">
         <v>33544</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>30461</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4">
         <v>30227</v>
       </c>
     </row>
@@ -1614,85 +1597,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6C3357-F9A9-409F-831D-0FC2453DA19D}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -1763,7 +1742,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -1834,8 +1813,8 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>57</v>
+      <c r="A4" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1914,95 +1893,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>282148</v>
-      </c>
-      <c r="C2">
-        <v>249235</v>
-      </c>
-      <c r="D2">
-        <v>254426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>82845</v>
-      </c>
-      <c r="C3">
-        <v>77766</v>
-      </c>
-      <c r="D3">
-        <v>79184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4">
-        <v>2326</v>
-      </c>
-      <c r="C4">
-        <v>2488</v>
-      </c>
-      <c r="D4">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <v>15381</v>
-      </c>
-      <c r="C5">
-        <v>13448</v>
-      </c>
-      <c r="D5">
-        <v>15181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF18BF76-A392-4070-977E-9E2F6234660F}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2011,22 +1902,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>282148</v>
+      </c>
+      <c r="C2">
+        <v>249235</v>
+      </c>
+      <c r="D2">
+        <v>254426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>82845</v>
+      </c>
+      <c r="C3">
+        <v>77766</v>
+      </c>
+      <c r="D3">
+        <v>79184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>2326</v>
+      </c>
+      <c r="C4">
+        <v>2488</v>
+      </c>
+      <c r="D4">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>15381</v>
+      </c>
+      <c r="C5">
+        <v>13448</v>
+      </c>
+      <c r="D5">
+        <v>15181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF18BF76-A392-4070-977E-9E2F6234660F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
       </c>
       <c r="B2">
         <v>92424</v>
@@ -2040,7 +2013,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2472</v>
@@ -2054,7 +2027,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>10557</v>
@@ -2064,6 +2037,23 @@
       </c>
       <c r="D4">
         <v>13078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <f>B2+B3+B4</f>
+        <v>105453</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" si="0">C2+C3+C4</f>
+        <v>100411</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>109228</v>
       </c>
     </row>
   </sheetData>
@@ -2076,126 +2066,123 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>585005</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>593715</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>595533</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>588345</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>590802</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>363125</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>364888</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>576922</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>490935</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>493338</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>546418</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>559765</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>581468</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>601326</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>606809</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>459564</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>400119</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>390747</v>
       </c>
     </row>
@@ -2203,58 +2190,58 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>395558</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>411321</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>525821</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>449085</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>445763</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>16686</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>11319</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>11580</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>120493</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>145623</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>116229</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>115465</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>111402</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>104070</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>96750</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>90617</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>87010</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>66949</v>
       </c>
     </row>
@@ -2262,58 +2249,58 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>128513</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>123272</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>116953</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>111761</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>128492</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>168678</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>156678</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2385,127 +2372,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4169E83E-07D8-4EA1-8F96-6821681D5C3D}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>196991</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>208624</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>232840</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>233740</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>236157</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>229766</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>245001</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>299848</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>273570</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>291885</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>296625</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>291767</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>293629</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>295850</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>327531</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>315615</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>372860</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>410789</v>
       </c>
     </row>
@@ -2513,58 +2495,58 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>204567</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>230013</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>350662</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>293889</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>300124</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>314732</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>432572</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>403769</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>374251</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>319426</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>383505</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>430944</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>462084</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>462179</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>626127</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>531248</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>527933</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>539486</v>
       </c>
     </row>
@@ -2572,58 +2554,58 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>57187</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>67232</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>98108</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>115993</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>109594</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>64608</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>64608</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
     </row>
@@ -2631,58 +2613,58 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>16748</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>16250</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>15462</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>16122</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>16523</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>18680</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>19180</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>20248</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>20735</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>21452</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>21889</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>22530</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>22957</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>23539</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>23721</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>23590</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>23808</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>21486</v>
       </c>
     </row>
@@ -2695,127 +2677,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691BF88A-D63F-4C2B-825C-39411D68C30B}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1348781</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1364107</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1334932</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1288821</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>840733</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>807822</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>828279</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>1050202</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>836946</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>884279</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>909195</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>924108</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>959556</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>980972</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>1018280</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>834888</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>827163</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>862028</v>
       </c>
     </row>
@@ -2823,58 +2800,58 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1034339</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1092477</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>1442961</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1229898</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>1229167</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>497439</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>623247</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>564770</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>504349</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>475835</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>506420</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>552968</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>579668</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>572398</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>728857</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>628160</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>623170</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>615360</v>
       </c>
     </row>
@@ -2882,58 +2859,58 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>186812</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>191616</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>215964</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>228554</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>238936</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>233676</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>221676</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
     </row>
@@ -2941,58 +2918,58 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>30712</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>30808</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>30722</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>30590</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>30276</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>31961</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>31402</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>31637</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>31504</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>31235</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>30718</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>30695</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>30573</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>30749</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>30562</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>30562</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>30471</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>27854</v>
       </c>
     </row>
@@ -3006,7 +2983,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3015,346 +2992,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.67959999999999998</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.72609999999999997</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.69240000000000002</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.69869999999999999</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.70279999999999998</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.69030000000000002</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.70420000000000005</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.67779999999999996</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>0.6724</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>0.66949999999999998</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0.68100000000000005</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>0.67549999999999999</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.67259999999999998</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>0.66800000000000004</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>0.65810000000000002</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>0.62709999999999999</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>0.61599999999999999</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>0.60829999999999995</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>0.58589999999999998</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>0.56220000000000003</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>0.5877</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>0.6</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>0.58450000000000002</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>0.57240000000000002</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>0.58940000000000003</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>0.56820000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.31459999999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.26129999999999998</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.29049999999999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.28460000000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.28370000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.27729999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.27250000000000002</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.26740000000000003</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.2727</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>0.27510000000000001</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.28199999999999997</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>0.2712</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0.27329999999999999</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.27410000000000001</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>0.27379999999999999</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.28649999999999998</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>0.3125</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>0.31969999999999998</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <v>0.34870000000000001</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>0.37940000000000002</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>0.34989999999999999</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>0.33900000000000002</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="4">
         <v>0.35349999999999998</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="4">
         <v>0.37230000000000002</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="4">
         <v>0.35770000000000002</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="4">
         <v>0.37919999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.8E-3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1E-3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>1.8E-3</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>4.58E-2</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
@@ -3362,85 +3336,85 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.15E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.66E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>5.21E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>5.79E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>0.74</v>
       </c>
     </row>
@@ -3454,7 +3428,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3463,144 +3437,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>45952</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>44304</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>45462</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>44861</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>44067</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>44236</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>43356</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>44183</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>45154</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>44425</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>44701</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>45668</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>45887</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>45436</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>45122</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>44312</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>43057</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>42245</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>42080</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>41903</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>41593</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>41856</v>
       </c>
     </row>
@@ -3608,70 +3579,70 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>60083</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>63042</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>64351</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>70431</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>73015</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>94129</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>108815</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>116086</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>124101</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>130412</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>135426</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>143338</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>152181</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>151845</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>153458</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>159032</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>168698</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>176194</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>179690</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>192649</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>200574</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>202545</v>
       </c>
     </row>
@@ -3679,141 +3650,141 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1423</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1490</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1445</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1642</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>1818</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>2770</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>2988</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>3021</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>3562</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>3654</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>3264</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>23912</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>23912</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>22664</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>22510</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>22752</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>22964</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>22809</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>22853</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>23077</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>23432</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>23633</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>23706</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>23907</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>23864</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>23892</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>24133</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>24469</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>24479</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>24479</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>24981</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5">
         <v>22398</v>
       </c>
     </row>
@@ -3827,7 +3798,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3836,144 +3807,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1151212</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1155536</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1187301</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1095048</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>952833</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>928262</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>987205</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>941054</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>922440</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>858195</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>969767</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>1180029</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>1103533</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>1067778</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>1132693</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>1138566</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>1096327</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>1066263</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>933689</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>848490</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>826180</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>830938</v>
       </c>
     </row>
@@ -3981,70 +3949,70 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>574157</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>597669</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>710116</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>612139</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>591017</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>581018</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>661766</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>603685</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>574736</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>577097</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>696945</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>673807</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>676089</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>547318</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>580770</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>616116</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>636182</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>625736</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>758773</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>663962</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>632961</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>624604</v>
       </c>
     </row>
@@ -4052,141 +4020,141 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>148411</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>145338</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>170943</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>176813</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>184994</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>190715</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>214845</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>227402</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>235734</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>230022</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>218653</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>4569</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>4569</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>8514</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>8202</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>8056</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>7758</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>7781</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>7423</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>8884</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>7970</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>8004</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>7798</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>7518</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>6854</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>6803</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>6737</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>6573</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>6736</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>6376</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>5830</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5">
         <v>5673</v>
       </c>
     </row>
@@ -4200,7 +4168,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4209,144 +4177,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.60419999999999996</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.58930000000000005</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.55830000000000002</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.56089999999999995</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.53069999999999995</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.51949999999999996</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.50280000000000002</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.50109999999999999</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.49980000000000002</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>0.48120000000000002</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>0.54010000000000002</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0.59079999999999999</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>0.57210000000000005</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.6038</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>0.60629999999999995</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>0.5948</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>0.57689999999999997</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>0.57099999999999995</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>0.50160000000000005</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>0.50080000000000002</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>0.501</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>0.50509999999999999</v>
       </c>
     </row>
@@ -4354,70 +4319,70 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.3201</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.32450000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.35070000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.33588000000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.35349999999999998</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.36070000000000002</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.37590000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.36609999999999998</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.36099999999999999</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>0.37719999999999998</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.44319999999999998</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>0.39389999999999997</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0.41220000000000001</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.37919999999999998</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>0.37790000000000001</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.38979999999999998</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>0.40749999999999997</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>0.41310000000000002</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>0.4824</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <v>0.48180000000000001</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>0.48120000000000002</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>0.47870000000000001</v>
       </c>
     </row>
@@ -4425,167 +4390,167 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>7.22E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.10340000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.10630000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.1172</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.1236</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.1246</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.29E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>1.54E-2</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>1.78E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4597,7 +4562,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4606,68 +4571,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>49</v>
-      </c>
-      <c r="U1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -4716,22 +4678,22 @@
       <c r="O2">
         <v>17303</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>22714.2</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>16700.3</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>14968.01</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <v>16377.11</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>17911.88</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <v>15622.18</v>
       </c>
     </row>
@@ -4784,7 +4746,7 @@
       <c r="P3">
         <v>12803.64</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>9834.93</v>
       </c>
       <c r="R3">
@@ -4825,37 +4787,37 @@
       <c r="H4" s="1">
         <v>2807</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>2198.7600000000002</v>
       </c>
       <c r="J4">
         <v>1956</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>2233.23</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>2425.21</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>2069.9499999999998</v>
       </c>
       <c r="N4">
         <v>1612.4</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>1668.41</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>1987.93</v>
       </c>
       <c r="Q4">
         <v>1497.4639999999999</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>1276.7</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>1272.0840000000001</v>
       </c>
       <c r="T4" s="1">
@@ -4867,7 +4829,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>2110.5100000000002</v>

--- a/src/xls/TelefoniaMobileRefactored.xlsx
+++ b/src/xls/TelefoniaMobileRefactored.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puhiz\source\repos\data-visualization-personal\src\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450B88F-BBE5-407F-93F7-F7760EC8F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B32AEB-4001-4BA9-89FA-897EA6EB81F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{5D7533D3-8976-4771-AE0C-5B50591415CD}"/>
+    <workbookView xWindow="28680" yWindow="-6480" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{5D7533D3-8976-4771-AE0C-5B50591415CD}"/>
   </bookViews>
   <sheets>
     <sheet name="MBB_2G" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Ndarja_tregut_sipas_te_hyrave" sheetId="5" r:id="rId5"/>
     <sheet name="Numri_perdoruesve_me_kontrate" sheetId="6" r:id="rId6"/>
     <sheet name="Numri_perdoruesve_me_parapagim" sheetId="7" r:id="rId7"/>
-    <sheet name="Nr_perdoruesve_data_sim" sheetId="8" r:id="rId8"/>
-    <sheet name="Te_hyrat_pergjithshme_2012-2016" sheetId="9" r:id="rId9"/>
-    <sheet name="Te_hyrat_pergjithshme_2017-2022" sheetId="15" r:id="rId10"/>
-    <sheet name="Outgoing_traffic" sheetId="10" r:id="rId11"/>
-    <sheet name="Incoming_traffic" sheetId="11" r:id="rId12"/>
-    <sheet name="Totali_trafikut_MNO" sheetId="12" r:id="rId13"/>
-    <sheet name="Totali_trafikut_terminuar" sheetId="14" r:id="rId14"/>
+    <sheet name="Numri_perdoruesve_total" sheetId="16" r:id="rId8"/>
+    <sheet name="Nr_perdoruesve_data_sim" sheetId="8" r:id="rId9"/>
+    <sheet name="Te_hyrat_pergjithshme_2012-2016" sheetId="9" r:id="rId10"/>
+    <sheet name="Te_hyrat_pergjithshme_2017-2022" sheetId="15" r:id="rId11"/>
+    <sheet name="Outgoing_traffic" sheetId="10" r:id="rId12"/>
+    <sheet name="Incoming_traffic" sheetId="11" r:id="rId13"/>
+    <sheet name="Totali_trafikut_MNO" sheetId="12" r:id="rId14"/>
+    <sheet name="Totali_trafikut_terminuar" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="65">
   <si>
     <t>Vala</t>
   </si>
@@ -929,6 +930,346 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45C9228-1D77-46F1-9A57-725EF8CA95F1}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29304</v>
+      </c>
+      <c r="C2">
+        <v>30812</v>
+      </c>
+      <c r="D2">
+        <v>36838</v>
+      </c>
+      <c r="E2" s="1">
+        <v>31162</v>
+      </c>
+      <c r="F2" s="1">
+        <v>26512</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28100</v>
+      </c>
+      <c r="H2">
+        <v>32382</v>
+      </c>
+      <c r="I2">
+        <v>27316</v>
+      </c>
+      <c r="J2">
+        <v>20350</v>
+      </c>
+      <c r="K2">
+        <v>21447</v>
+      </c>
+      <c r="L2">
+        <v>25345</v>
+      </c>
+      <c r="M2">
+        <v>19077</v>
+      </c>
+      <c r="N2">
+        <v>15596</v>
+      </c>
+      <c r="O2">
+        <v>17303</v>
+      </c>
+      <c r="P2" s="5">
+        <v>22714.2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>16700.3</v>
+      </c>
+      <c r="R2" s="5">
+        <v>14968.01</v>
+      </c>
+      <c r="S2" s="5">
+        <v>16377.11</v>
+      </c>
+      <c r="T2" s="5">
+        <v>17911.88</v>
+      </c>
+      <c r="U2" s="5">
+        <v>15622.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11787.99</v>
+      </c>
+      <c r="C3">
+        <v>12605</v>
+      </c>
+      <c r="D3">
+        <v>15516</v>
+      </c>
+      <c r="E3">
+        <v>12411.16</v>
+      </c>
+      <c r="F3">
+        <v>10726.78</v>
+      </c>
+      <c r="G3">
+        <v>11451.26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13271</v>
+      </c>
+      <c r="I3">
+        <v>11457.26</v>
+      </c>
+      <c r="J3">
+        <v>10140</v>
+      </c>
+      <c r="K3">
+        <v>11132.23</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13885</v>
+      </c>
+      <c r="M3" s="1">
+        <v>11353</v>
+      </c>
+      <c r="N3">
+        <v>10525.56</v>
+      </c>
+      <c r="O3">
+        <v>10302.950000000001</v>
+      </c>
+      <c r="P3">
+        <v>12803.64</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>9834.93</v>
+      </c>
+      <c r="R3">
+        <v>9737</v>
+      </c>
+      <c r="S3">
+        <v>9941</v>
+      </c>
+      <c r="T3" s="1">
+        <v>11954</v>
+      </c>
+      <c r="U3" s="1">
+        <v>10272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2110.5100000000002</v>
+      </c>
+      <c r="C4">
+        <v>2386.5</v>
+      </c>
+      <c r="D4">
+        <v>2652.89</v>
+      </c>
+      <c r="E4">
+        <v>2172.9299999999998</v>
+      </c>
+      <c r="F4">
+        <v>1996.14</v>
+      </c>
+      <c r="G4">
+        <v>2217.63</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2807</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2198.7600000000002</v>
+      </c>
+      <c r="J4">
+        <v>1956</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2233.23</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2425.21</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2069.9499999999998</v>
+      </c>
+      <c r="N4">
+        <v>1612.4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1668.41</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1987.93</v>
+      </c>
+      <c r="Q4">
+        <v>1497.4639999999999</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1276.7</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1272.0840000000001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1425</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>2110.5100000000002</v>
+      </c>
+      <c r="C5">
+        <v>2386.5</v>
+      </c>
+      <c r="D5">
+        <v>2652.89</v>
+      </c>
+      <c r="E5">
+        <v>2172.9299999999998</v>
+      </c>
+      <c r="F5">
+        <v>1996.14</v>
+      </c>
+      <c r="G5">
+        <v>2217.63</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2807</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DDA393-7207-4465-96B9-D676F495FD00}">
   <dimension ref="A1:W5"/>
   <sheetViews>
@@ -1296,11 +1637,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8337F59-C2B4-491E-A5BC-94B0B440E6E3}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1593,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6C3357-F9A9-409F-831D-0FC2453DA19D}">
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -1888,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3339B9-4D7E-4DBB-8621-292CF4A57128}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1973,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF18BF76-A392-4070-977E-9E2F6234660F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3428,7 +3769,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B2" sqref="B2:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3798,7 +4139,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B2" sqref="B2:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4164,6 +4505,376 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336086EB-A09E-437B-A740-6A11DF1B514E}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1197164</v>
+      </c>
+      <c r="C2">
+        <v>1199840</v>
+      </c>
+      <c r="D2">
+        <v>1232763</v>
+      </c>
+      <c r="E2">
+        <v>1139909</v>
+      </c>
+      <c r="F2">
+        <v>996900</v>
+      </c>
+      <c r="G2">
+        <v>972498</v>
+      </c>
+      <c r="H2">
+        <v>1030561</v>
+      </c>
+      <c r="I2">
+        <v>985237</v>
+      </c>
+      <c r="J2">
+        <v>967594</v>
+      </c>
+      <c r="K2">
+        <v>902620</v>
+      </c>
+      <c r="L2">
+        <v>1014468</v>
+      </c>
+      <c r="M2">
+        <v>1225697</v>
+      </c>
+      <c r="N2">
+        <v>1149420</v>
+      </c>
+      <c r="O2">
+        <v>1113214</v>
+      </c>
+      <c r="P2">
+        <v>1177815</v>
+      </c>
+      <c r="Q2">
+        <v>1182878</v>
+      </c>
+      <c r="R2">
+        <v>1139384</v>
+      </c>
+      <c r="S2">
+        <v>1108508</v>
+      </c>
+      <c r="T2">
+        <v>975769</v>
+      </c>
+      <c r="U2">
+        <v>890393</v>
+      </c>
+      <c r="V2">
+        <v>867773</v>
+      </c>
+      <c r="W2">
+        <v>872794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>634240</v>
+      </c>
+      <c r="C3">
+        <v>660711</v>
+      </c>
+      <c r="D3">
+        <v>774467</v>
+      </c>
+      <c r="E3">
+        <v>682570</v>
+      </c>
+      <c r="F3">
+        <v>664032</v>
+      </c>
+      <c r="G3">
+        <v>675147</v>
+      </c>
+      <c r="H3">
+        <v>770581</v>
+      </c>
+      <c r="I3">
+        <v>719771</v>
+      </c>
+      <c r="J3">
+        <v>698837</v>
+      </c>
+      <c r="K3">
+        <v>707509</v>
+      </c>
+      <c r="L3">
+        <v>832371</v>
+      </c>
+      <c r="M3">
+        <v>817145</v>
+      </c>
+      <c r="N3">
+        <v>828270</v>
+      </c>
+      <c r="O3">
+        <v>699163</v>
+      </c>
+      <c r="P3">
+        <v>734228</v>
+      </c>
+      <c r="Q3">
+        <v>775148</v>
+      </c>
+      <c r="R3">
+        <v>804880</v>
+      </c>
+      <c r="S3">
+        <v>801930</v>
+      </c>
+      <c r="T3">
+        <v>938463</v>
+      </c>
+      <c r="U3">
+        <v>856611</v>
+      </c>
+      <c r="V3">
+        <v>833535</v>
+      </c>
+      <c r="W3">
+        <v>827149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>149834</v>
+      </c>
+      <c r="C4">
+        <v>146828</v>
+      </c>
+      <c r="D4">
+        <v>172388</v>
+      </c>
+      <c r="E4">
+        <v>178455</v>
+      </c>
+      <c r="F4">
+        <v>186812</v>
+      </c>
+      <c r="G4">
+        <v>193485</v>
+      </c>
+      <c r="H4">
+        <v>217833</v>
+      </c>
+      <c r="I4">
+        <v>230423</v>
+      </c>
+      <c r="J4">
+        <v>239296</v>
+      </c>
+      <c r="K4">
+        <v>233676</v>
+      </c>
+      <c r="L4">
+        <v>221917</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>28481</v>
+      </c>
+      <c r="D5">
+        <v>28481</v>
+      </c>
+      <c r="E5">
+        <v>31178</v>
+      </c>
+      <c r="F5">
+        <v>30712</v>
+      </c>
+      <c r="G5">
+        <v>30808</v>
+      </c>
+      <c r="H5">
+        <v>30722</v>
+      </c>
+      <c r="I5">
+        <v>30590</v>
+      </c>
+      <c r="J5">
+        <v>30276</v>
+      </c>
+      <c r="K5">
+        <v>31961</v>
+      </c>
+      <c r="L5">
+        <v>31402</v>
+      </c>
+      <c r="M5">
+        <v>31637</v>
+      </c>
+      <c r="N5">
+        <v>31504</v>
+      </c>
+      <c r="O5">
+        <v>31425</v>
+      </c>
+      <c r="P5">
+        <v>30718</v>
+      </c>
+      <c r="Q5">
+        <v>30695</v>
+      </c>
+      <c r="R5">
+        <v>30870</v>
+      </c>
+      <c r="S5">
+        <v>31042</v>
+      </c>
+      <c r="T5">
+        <v>31215</v>
+      </c>
+      <c r="U5">
+        <v>30855</v>
+      </c>
+      <c r="V5">
+        <v>30811</v>
+      </c>
+      <c r="W5">
+        <v>28071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9FAEB0-015B-467B-A355-7C32CD5D5AE5}">
   <dimension ref="A1:W6"/>
   <sheetViews>
@@ -4555,344 +5266,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45C9228-1D77-46F1-9A57-725EF8CA95F1}">
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>29304</v>
-      </c>
-      <c r="C2">
-        <v>30812</v>
-      </c>
-      <c r="D2">
-        <v>36838</v>
-      </c>
-      <c r="E2" s="1">
-        <v>31162</v>
-      </c>
-      <c r="F2" s="1">
-        <v>26512</v>
-      </c>
-      <c r="G2" s="1">
-        <v>28100</v>
-      </c>
-      <c r="H2">
-        <v>32382</v>
-      </c>
-      <c r="I2">
-        <v>27316</v>
-      </c>
-      <c r="J2">
-        <v>20350</v>
-      </c>
-      <c r="K2">
-        <v>21447</v>
-      </c>
-      <c r="L2">
-        <v>25345</v>
-      </c>
-      <c r="M2">
-        <v>19077</v>
-      </c>
-      <c r="N2">
-        <v>15596</v>
-      </c>
-      <c r="O2">
-        <v>17303</v>
-      </c>
-      <c r="P2" s="5">
-        <v>22714.2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>16700.3</v>
-      </c>
-      <c r="R2" s="5">
-        <v>14968.01</v>
-      </c>
-      <c r="S2" s="5">
-        <v>16377.11</v>
-      </c>
-      <c r="T2" s="5">
-        <v>17911.88</v>
-      </c>
-      <c r="U2" s="5">
-        <v>15622.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11787.99</v>
-      </c>
-      <c r="C3">
-        <v>12605</v>
-      </c>
-      <c r="D3">
-        <v>15516</v>
-      </c>
-      <c r="E3">
-        <v>12411.16</v>
-      </c>
-      <c r="F3">
-        <v>10726.78</v>
-      </c>
-      <c r="G3">
-        <v>11451.26</v>
-      </c>
-      <c r="H3" s="1">
-        <v>13271</v>
-      </c>
-      <c r="I3">
-        <v>11457.26</v>
-      </c>
-      <c r="J3">
-        <v>10140</v>
-      </c>
-      <c r="K3">
-        <v>11132.23</v>
-      </c>
-      <c r="L3" s="1">
-        <v>13885</v>
-      </c>
-      <c r="M3" s="1">
-        <v>11353</v>
-      </c>
-      <c r="N3">
-        <v>10525.56</v>
-      </c>
-      <c r="O3">
-        <v>10302.950000000001</v>
-      </c>
-      <c r="P3">
-        <v>12803.64</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>9834.93</v>
-      </c>
-      <c r="R3">
-        <v>9737</v>
-      </c>
-      <c r="S3">
-        <v>9941</v>
-      </c>
-      <c r="T3" s="1">
-        <v>11954</v>
-      </c>
-      <c r="U3" s="1">
-        <v>10272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2110.5100000000002</v>
-      </c>
-      <c r="C4">
-        <v>2386.5</v>
-      </c>
-      <c r="D4">
-        <v>2652.89</v>
-      </c>
-      <c r="E4">
-        <v>2172.9299999999998</v>
-      </c>
-      <c r="F4">
-        <v>1996.14</v>
-      </c>
-      <c r="G4">
-        <v>2217.63</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2807</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2198.7600000000002</v>
-      </c>
-      <c r="J4">
-        <v>1956</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2233.23</v>
-      </c>
-      <c r="L4" s="5">
-        <v>2425.21</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2069.9499999999998</v>
-      </c>
-      <c r="N4">
-        <v>1612.4</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1668.41</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1987.93</v>
-      </c>
-      <c r="Q4">
-        <v>1497.4639999999999</v>
-      </c>
-      <c r="R4" s="5">
-        <v>1276.7</v>
-      </c>
-      <c r="S4" s="5">
-        <v>1272.0840000000001</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1425</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>2110.5100000000002</v>
-      </c>
-      <c r="C5">
-        <v>2386.5</v>
-      </c>
-      <c r="D5">
-        <v>2652.89</v>
-      </c>
-      <c r="E5">
-        <v>2172.9299999999998</v>
-      </c>
-      <c r="F5">
-        <v>1996.14</v>
-      </c>
-      <c r="G5">
-        <v>2217.63</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2807</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>